--- a/db/dummydata/demo/demo__freight_rates.xlsx
+++ b/db/dummydata/demo/demo__freight_rates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="50">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -159,6 +159,9 @@
   <si>
     <t>Hong Kong</t>
   </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,6 +248,12 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12801,26 +12810,1068 @@
         <v>1500.0</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1">
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G242" s="3">
+        <v>43544.0</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I242" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J242" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K242">
+        <v>1000.0</v>
+      </c>
+      <c r="L242" t="s">
+        <v>25</v>
+      </c>
+      <c r="M242" t="s">
+        <v>26</v>
+      </c>
+      <c r="N242" t="s">
+        <v>27</v>
+      </c>
+      <c r="O242" t="s">
+        <v>28</v>
+      </c>
+      <c r="P242">
+        <v>1175.0</v>
+      </c>
+      <c r="Q242">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="243" ht="12.75" customHeight="1">
+      <c r="D243" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" t="s">
+        <v>29</v>
+      </c>
+      <c r="F243" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G243" s="3">
+        <v>43545.0</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I243" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J243" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K243">
+        <v>1000.0</v>
+      </c>
+      <c r="L243" t="s">
+        <v>25</v>
+      </c>
+      <c r="M243" t="s">
+        <v>26</v>
+      </c>
+      <c r="N243" t="s">
+        <v>27</v>
+      </c>
+      <c r="O243" t="s">
+        <v>28</v>
+      </c>
+      <c r="P243">
+        <v>2050.0</v>
+      </c>
+      <c r="Q243">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="244" ht="12.75" customHeight="1">
+      <c r="D244" t="s">
+        <v>21</v>
+      </c>
+      <c r="E244" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G244" s="3">
+        <v>43546.0</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I244" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J244" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K244">
+        <v>1000.0</v>
+      </c>
+      <c r="L244" t="s">
+        <v>25</v>
+      </c>
+      <c r="M244" t="s">
+        <v>26</v>
+      </c>
+      <c r="N244" t="s">
+        <v>27</v>
+      </c>
+      <c r="O244" t="s">
+        <v>28</v>
+      </c>
+      <c r="P244">
+        <v>2050.0</v>
+      </c>
+      <c r="Q244">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G245" s="6">
+        <v>43546.0</v>
+      </c>
+      <c r="H245" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J245" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K245" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L245" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N245" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O245" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P245" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q245" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="U245" s="5">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F246" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G246" s="6">
+        <v>43547.0</v>
+      </c>
+      <c r="H246" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J246" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K246" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N246" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O246" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P246" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q246" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="R246" s="5"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="U246" s="5">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F247" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G247" s="6">
+        <v>43548.0</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J247" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K247" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M247" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N247" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O247" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P247" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q247" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="R247" s="5"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="U247" s="5">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F248" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G248" s="6">
+        <v>43549.0</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J248" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K248" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N248" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O248" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P248" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q248" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="R248" s="5"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="5">
+        <v>250.0</v>
+      </c>
+      <c r="U248" s="5">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F249" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G249" s="6">
+        <v>43550.0</v>
+      </c>
+      <c r="H249" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J249" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K249" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N249" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O249" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P249" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q249" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="U249" s="5">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F250" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G250" s="6">
+        <v>43551.0</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J250" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K250" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O250" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P250" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q250" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="U250" s="5">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F251" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G251" s="6">
+        <v>43552.0</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J251" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K251" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M251" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N251" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O251" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P251" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q251" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="U251" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="252" ht="12.75" customHeight="1">
+      <c r="D252" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="F252" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G252" s="3">
+        <v>43544.0</v>
+      </c>
+      <c r="H252" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J252" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K252">
+        <v>1000.0</v>
+      </c>
+      <c r="L252" t="s">
+        <v>25</v>
+      </c>
+      <c r="M252" t="s">
+        <v>26</v>
+      </c>
+      <c r="N252" t="s">
+        <v>27</v>
+      </c>
+      <c r="O252" t="s">
+        <v>28</v>
+      </c>
+      <c r="P252">
+        <v>1175.0</v>
+      </c>
+      <c r="Q252">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="253" ht="12.75" customHeight="1">
+      <c r="D253" t="s">
+        <v>21</v>
+      </c>
+      <c r="E253" t="s">
+        <v>29</v>
+      </c>
+      <c r="F253" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G253" s="3">
+        <v>43545.0</v>
+      </c>
+      <c r="H253" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J253" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K253">
+        <v>1000.0</v>
+      </c>
+      <c r="L253" t="s">
+        <v>25</v>
+      </c>
+      <c r="M253" t="s">
+        <v>26</v>
+      </c>
+      <c r="N253" t="s">
+        <v>27</v>
+      </c>
+      <c r="O253" t="s">
+        <v>28</v>
+      </c>
+      <c r="P253">
+        <v>2050.0</v>
+      </c>
+      <c r="Q253">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="254" ht="12.75" customHeight="1">
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" t="s">
+        <v>30</v>
+      </c>
+      <c r="F254" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G254" s="3">
+        <v>43546.0</v>
+      </c>
+      <c r="H254" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J254" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K254">
+        <v>1000.0</v>
+      </c>
+      <c r="L254" t="s">
+        <v>25</v>
+      </c>
+      <c r="M254" t="s">
+        <v>26</v>
+      </c>
+      <c r="N254" t="s">
+        <v>27</v>
+      </c>
+      <c r="O254" t="s">
+        <v>28</v>
+      </c>
+      <c r="P254">
+        <v>2050.0</v>
+      </c>
+      <c r="Q254">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F255" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G255" s="6">
+        <v>43546.0</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I255" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J255" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K255" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L255" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M255" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N255" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O255" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P255" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q255" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="U255" s="5">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F256" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G256" s="6">
+        <v>43547.0</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I256" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J256" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K256" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N256" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O256" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P256" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q256" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="U256" s="5">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F257" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G257" s="6">
+        <v>43548.0</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I257" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J257" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K257" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N257" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O257" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P257" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q257" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="U257" s="5">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F258" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G258" s="6">
+        <v>43549.0</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I258" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J258" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K258" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N258" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P258" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q258" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5">
+        <v>250.0</v>
+      </c>
+      <c r="U258" s="5">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F259" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G259" s="6">
+        <v>43550.0</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J259" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K259" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N259" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O259" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P259" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q259" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5">
+        <v>300.0</v>
+      </c>
+      <c r="U259" s="5">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F260" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G260" s="6">
+        <v>43551.0</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I260" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J260" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K260" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N260" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O260" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P260" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q260" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="U260" s="5">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F261" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G261" s="6">
+        <v>43552.0</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I261" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J261" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K261" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N261" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O261" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P261" s="5">
+        <v>600.0</v>
+      </c>
+      <c r="Q261" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="R261" s="5"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="U261" s="5">
+        <v>1500.0</v>
+      </c>
+    </row>
     <row r="262" ht="15.75" customHeight="1"/>
     <row r="263" ht="15.75" customHeight="1"/>
     <row r="264" ht="15.75" customHeight="1"/>

--- a/db/dummydata/demo/demo__freight_rates.xlsx
+++ b/db/dummydata/demo/demo__freight_rates.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="50">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -13872,11 +13872,245 @@
         <v>1500.0</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1">
+      <c r="D262" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" t="s">
+        <v>32</v>
+      </c>
+      <c r="F262" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G262" s="3">
+        <v>43539.0</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I262" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J262" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K262">
+        <v>1000.0</v>
+      </c>
+      <c r="L262" t="s">
+        <v>25</v>
+      </c>
+      <c r="M262" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N262" t="s">
+        <v>27</v>
+      </c>
+      <c r="O262" t="s">
+        <v>33</v>
+      </c>
+      <c r="P262">
+        <v>39.0</v>
+      </c>
+      <c r="Q262">
+        <v>39.0</v>
+      </c>
+      <c r="T262" s="4"/>
+    </row>
+    <row r="263" ht="12.75" customHeight="1">
+      <c r="D263" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>43540.0</v>
+      </c>
+      <c r="H263" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I263" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J263" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K263">
+        <v>1000.0</v>
+      </c>
+      <c r="L263" t="s">
+        <v>25</v>
+      </c>
+      <c r="M263" t="s">
+        <v>34</v>
+      </c>
+      <c r="N263" t="s">
+        <v>27</v>
+      </c>
+      <c r="O263" t="s">
+        <v>33</v>
+      </c>
+      <c r="P263">
+        <v>10.0</v>
+      </c>
+      <c r="Q263">
+        <v>4.0</v>
+      </c>
+      <c r="R263">
+        <v>550.0</v>
+      </c>
+      <c r="S263" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" ht="12.75" customHeight="1">
+      <c r="D264" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264" t="s">
+        <v>32</v>
+      </c>
+      <c r="F264" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>43541.0</v>
+      </c>
+      <c r="H264" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J264" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K264">
+        <v>1000.0</v>
+      </c>
+      <c r="L264" t="s">
+        <v>25</v>
+      </c>
+      <c r="M264" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N264" t="s">
+        <v>27</v>
+      </c>
+      <c r="O264" t="s">
+        <v>33</v>
+      </c>
+      <c r="P264">
+        <v>0.0</v>
+      </c>
+      <c r="Q264">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="265" ht="12.75" customHeight="1">
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>32</v>
+      </c>
+      <c r="F265" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>43542.0</v>
+      </c>
+      <c r="H265" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J265" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K265">
+        <v>1000.0</v>
+      </c>
+      <c r="L265" t="s">
+        <v>25</v>
+      </c>
+      <c r="M265" t="s">
+        <v>34</v>
+      </c>
+      <c r="N265" t="s">
+        <v>27</v>
+      </c>
+      <c r="O265" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q265">
+        <v>100.0</v>
+      </c>
+      <c r="S265" t="s">
+        <v>36</v>
+      </c>
+      <c r="T265">
+        <v>1500.0</v>
+      </c>
+      <c r="U265">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="266" ht="12.75" customHeight="1">
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266" s="3">
+        <v>43174.0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>43543.0</v>
+      </c>
+      <c r="H266" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J266" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="K266">
+        <v>1000.0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>25</v>
+      </c>
+      <c r="M266" t="s">
+        <v>34</v>
+      </c>
+      <c r="N266" t="s">
+        <v>27</v>
+      </c>
+      <c r="O266" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q266">
+        <v>250.0</v>
+      </c>
+      <c r="S266" t="s">
+        <v>36</v>
+      </c>
+      <c r="T266">
+        <v>2000.0</v>
+      </c>
+      <c r="U266">
+        <v>2500.0</v>
+      </c>
+    </row>
     <row r="267" ht="15.75" customHeight="1"/>
     <row r="268" ht="15.75" customHeight="1"/>
     <row r="269" ht="15.75" customHeight="1"/>
